--- a/data/air_info/北京-西安.xlsx
+++ b/data/air_info/北京-西安.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B9DFCF-D0E2-490E-8D80-E03CA699107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB008C6-94D9-41EB-9145-CD318ADFA1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,33 +33,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
     <t>海航经济舱Boeing 787HU 7137</t>
   </si>
   <si>
     <t>国航经济舱Airbus A320CA 1231</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A320MU 2102</t>
   </si>
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1289</t>
   </si>
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 35 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1209</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
     <t>南航经济舱Boeing 737CZ 8823</t>
   </si>
   <si>
-    <t>行程时间：2 小时 25 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737MAX 8 PassengerCA 1201</t>
   </si>
   <si>
@@ -130,7 +112,24 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 25 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
   </si>
 </sst>
 </file>
@@ -485,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -495,31 +494,30 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="5" width="32.08984375" customWidth="1"/>
     <col min="6" max="6" width="39.08984375" customWidth="1"/>
-    <col min="7" max="7" width="27.36328125" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,23 +525,22 @@
         <v>0.28472222222222221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>0.38194444444444442</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(2000,3500)</f>
-        <v>2332</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,23 +548,22 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>0.40625</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" ca="1" si="0">RANDBETWEEN(2000,3500)</f>
-        <v>2263</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,23 +571,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2795</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,23 +594,22 @@
         <v>0.375</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>0.46875</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2670</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,23 +617,22 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>0.50347222222222221</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3191</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,23 +640,22 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>0.55902777777777779</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3053</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -671,23 +663,22 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>0.59027777777777779</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2211</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,23 +686,22 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>0.63194444444444442</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3335</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,23 +709,22 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>0.68402777777777779</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3248</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -743,23 +732,22 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2938</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,23 +755,22 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>0.74652777777777779</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2902</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,23 +778,22 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>0.76388888888888884</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2894</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,23 +801,22 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2733</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,23 +824,22 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>3325</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,23 +847,22 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>0.92708333333333337</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2043</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,23 +870,22 @@
         <v>0.84375</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>0.9375</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>2636</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -911,23 +893,22 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>0.98263888888888884</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>3071</v>
+        <v>2622</v>
       </c>
     </row>
   </sheetData>
